--- a/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P13NAC186- EQ. ARIX HUMERO PROXIMAL #2.xlsx
+++ b/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P13NAC186- EQ. ARIX HUMERO PROXIMAL #2.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022\EQUIPOS BODEGA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022\EQUIPOS BODEGA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89336D63-C1CC-4B64-8C99-0F2D7AB5788A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6130"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,12 +35,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Asus</author>
   </authors>
   <commentList>
-    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="E7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -66,7 +65,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="C9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -91,7 +90,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="C11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -115,7 +114,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="E11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -829,7 +828,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;$&quot;* #,##0_ ;_ &quot;$&quot;* \-#,##0_ ;_ &quot;$&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;??_ ;_ @_ "/>
@@ -1433,6 +1432,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1469,18 +1474,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Moneda [0] 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Moneda 10" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Moneda [0] 2" xfId="2"/>
+    <cellStyle name="Moneda 10" xfId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1806,79 +1805,79 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="H113" sqref="H113"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" customWidth="1"/>
-    <col min="3" max="3" width="66.7109375" customWidth="1"/>
+    <col min="1" max="1" width="19.54296875" customWidth="1"/>
+    <col min="2" max="2" width="19.26953125" customWidth="1"/>
+    <col min="3" max="3" width="66.7265625" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.453125" customWidth="1"/>
+    <col min="6" max="6" width="14.54296875" customWidth="1"/>
+    <col min="7" max="7" width="15.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
-      <c r="C2" s="72" t="s">
+      <c r="C2" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="74" t="s">
+      <c r="D2" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="75"/>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="77"/>
+    </row>
+    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
-      <c r="C3" s="73"/>
+      <c r="C3" s="75"/>
       <c r="D3" s="8" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="9"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="6"/>
       <c r="B4" s="7"/>
-      <c r="C4" s="76" t="s">
+      <c r="C4" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="78" t="s">
+      <c r="D4" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="79"/>
-    </row>
-    <row r="5" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E4" s="81"/>
+    </row>
+    <row r="5" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="10"/>
       <c r="B5" s="11"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="80" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="81"/>
-    </row>
-    <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="C5" s="79"/>
+      <c r="D5" s="82" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="83"/>
+    </row>
+    <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.4">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
     </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="13" t="s">
         <v>6</v>
       </c>
@@ -1889,14 +1888,14 @@
       </c>
       <c r="E7" s="15"/>
     </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="16"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
     </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
         <v>8</v>
       </c>
@@ -1907,32 +1906,32 @@
       </c>
       <c r="E9" s="19"/>
     </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="16"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
     </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="70" t="s">
+    <row r="11" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="71"/>
+      <c r="B11" s="73"/>
       <c r="C11" s="17"/>
       <c r="D11" s="18" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="20"/>
     </row>
-    <row r="12" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="16"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
     </row>
-    <row r="13" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="13" t="s">
         <v>12</v>
       </c>
@@ -1943,14 +1942,14 @@
       </c>
       <c r="E13" s="17"/>
     </row>
-    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="16"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
     </row>
-    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="13" t="s">
         <v>14</v>
       </c>
@@ -1961,14 +1960,14 @@
       </c>
       <c r="E15" s="22"/>
     </row>
-    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="16"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="13" t="s">
         <v>16</v>
       </c>
@@ -1977,14 +1976,14 @@
       <c r="D17" s="23"/>
       <c r="E17" s="24"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="16"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="13" t="s">
         <v>17</v>
       </c>
@@ -1995,14 +1994,14 @@
       </c>
       <c r="E19" s="22"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="16"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
       <c r="D20" s="16"/>
       <c r="E20" s="16"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="13" t="s">
         <v>19</v>
       </c>
@@ -2011,14 +2010,14 @@
       <c r="D21" s="26"/>
       <c r="E21" s="27"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="40"/>
       <c r="B22" s="40"/>
       <c r="C22" s="44"/>
       <c r="D22" s="41"/>
       <c r="E22" s="42"/>
     </row>
-    <row r="23" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="31" x14ac:dyDescent="0.35">
       <c r="A23" s="28" t="s">
         <v>20</v>
       </c>
@@ -2041,7 +2040,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="62" t="s">
         <v>25</v>
       </c>
@@ -2061,7 +2060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="62" t="s">
         <v>28</v>
       </c>
@@ -2083,7 +2082,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="62" t="s">
         <v>32</v>
       </c>
@@ -2105,7 +2104,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="62"/>
       <c r="B27" s="62"/>
       <c r="C27" s="63"/>
@@ -2117,7 +2116,7 @@
       <c r="F27" s="57"/>
       <c r="G27" s="58"/>
     </row>
-    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="62" t="s">
         <v>26</v>
       </c>
@@ -2139,7 +2138,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="62" t="s">
         <v>30</v>
       </c>
@@ -2161,7 +2160,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="62" t="s">
         <v>34</v>
       </c>
@@ -2183,7 +2182,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="62"/>
       <c r="B31" s="62"/>
       <c r="C31" s="63"/>
@@ -2195,7 +2194,7 @@
       <c r="F31" s="57"/>
       <c r="G31" s="58"/>
     </row>
-    <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="48" t="s">
         <v>36</v>
       </c>
@@ -2217,7 +2216,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="48" t="s">
         <v>39</v>
       </c>
@@ -2239,7 +2238,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="48" t="s">
         <v>42</v>
       </c>
@@ -2261,7 +2260,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="48" t="s">
         <v>45</v>
       </c>
@@ -2283,7 +2282,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="48" t="s">
         <v>47</v>
       </c>
@@ -2305,7 +2304,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" s="48" t="s">
         <v>50</v>
       </c>
@@ -2327,7 +2326,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="48" t="s">
         <v>53</v>
       </c>
@@ -2349,7 +2348,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="48" t="s">
         <v>56</v>
       </c>
@@ -2371,7 +2370,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="48" t="s">
         <v>59</v>
       </c>
@@ -2393,7 +2392,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A41" s="48" t="s">
         <v>62</v>
       </c>
@@ -2415,7 +2414,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A42" s="48" t="s">
         <v>65</v>
       </c>
@@ -2437,7 +2436,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="48" t="s">
         <v>68</v>
       </c>
@@ -2459,7 +2458,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="48" t="s">
         <v>71</v>
       </c>
@@ -2481,7 +2480,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="48" t="s">
         <v>74</v>
       </c>
@@ -2503,7 +2502,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A46" s="48" t="s">
         <v>76</v>
       </c>
@@ -2525,7 +2524,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" s="48" t="s">
         <v>79</v>
       </c>
@@ -2547,7 +2546,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" s="48" t="s">
         <v>82</v>
       </c>
@@ -2569,7 +2568,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49" s="48" t="s">
         <v>85</v>
       </c>
@@ -2591,7 +2590,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" s="48" t="s">
         <v>88</v>
       </c>
@@ -2613,7 +2612,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A51" s="48"/>
       <c r="B51" s="62"/>
       <c r="C51" s="63"/>
@@ -2624,7 +2623,7 @@
       <c r="F51" s="59"/>
       <c r="G51" s="60"/>
     </row>
-    <row r="52" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52" s="66" t="s">
         <v>91</v>
       </c>
@@ -2646,7 +2645,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53" s="67" t="s">
         <v>94</v>
       </c>
@@ -2668,7 +2667,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A54" s="66" t="s">
         <v>97</v>
       </c>
@@ -2690,7 +2689,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A55" s="48" t="s">
         <v>99</v>
       </c>
@@ -2712,7 +2711,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A56" s="48" t="s">
         <v>101</v>
       </c>
@@ -2734,7 +2733,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A57" s="48" t="s">
         <v>104</v>
       </c>
@@ -2756,7 +2755,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A58" s="48" t="s">
         <v>107</v>
       </c>
@@ -2778,7 +2777,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A59" s="48" t="s">
         <v>110</v>
       </c>
@@ -2800,7 +2799,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A60" s="48" t="s">
         <v>113</v>
       </c>
@@ -2822,7 +2821,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A61" s="48" t="s">
         <v>116</v>
       </c>
@@ -2844,7 +2843,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A62" s="48" t="s">
         <v>118</v>
       </c>
@@ -2866,7 +2865,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A63" s="62"/>
       <c r="B63" s="62"/>
       <c r="C63" s="63"/>
@@ -2877,7 +2876,7 @@
       <c r="F63" s="57"/>
       <c r="G63" s="58"/>
     </row>
-    <row r="64" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A64" s="62" t="s">
         <v>120</v>
       </c>
@@ -2899,7 +2898,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A65" s="62" t="s">
         <v>123</v>
       </c>
@@ -2921,7 +2920,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A66" s="62" t="s">
         <v>126</v>
       </c>
@@ -2943,7 +2942,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A67" s="62" t="s">
         <v>129</v>
       </c>
@@ -2965,7 +2964,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A68" s="62" t="s">
         <v>132</v>
       </c>
@@ -2987,7 +2986,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A69" s="62" t="s">
         <v>135</v>
       </c>
@@ -3009,7 +3008,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A70" s="62" t="s">
         <v>138</v>
       </c>
@@ -3031,7 +3030,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A71" s="62" t="s">
         <v>141</v>
       </c>
@@ -3053,7 +3052,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A72" s="62" t="s">
         <v>144</v>
       </c>
@@ -3075,7 +3074,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A73" s="62" t="s">
         <v>147</v>
       </c>
@@ -3097,7 +3096,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A74" s="62" t="s">
         <v>150</v>
       </c>
@@ -3119,7 +3118,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A75" s="62" t="s">
         <v>152</v>
       </c>
@@ -3141,7 +3140,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A76" s="62" t="s">
         <v>155</v>
       </c>
@@ -3163,7 +3162,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A77" s="62" t="s">
         <v>158</v>
       </c>
@@ -3185,7 +3184,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A78" s="62" t="s">
         <v>161</v>
       </c>
@@ -3207,7 +3206,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A79" s="62" t="s">
         <v>164</v>
       </c>
@@ -3229,7 +3228,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A80" s="62" t="s">
         <v>167</v>
       </c>
@@ -3251,7 +3250,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A81" s="62" t="s">
         <v>170</v>
       </c>
@@ -3273,7 +3272,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A82" s="62" t="s">
         <v>173</v>
       </c>
@@ -3295,7 +3294,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A83" s="64"/>
       <c r="B83" s="64"/>
       <c r="C83" s="65"/>
@@ -3306,13 +3305,13 @@
       <c r="F83" s="65"/>
       <c r="G83" s="65"/>
     </row>
-    <row r="84" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A84" s="68"/>
       <c r="B84" s="68"/>
       <c r="C84" s="68"/>
       <c r="D84" s="69"/>
       <c r="E84" s="68"/>
-      <c r="F84" s="82" t="s">
+      <c r="F84" s="70" t="s">
         <v>225</v>
       </c>
       <c r="G84" s="61">
@@ -3320,13 +3319,13 @@
         <v>20940</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A85" s="68"/>
       <c r="B85" s="68"/>
       <c r="C85" s="68"/>
       <c r="D85" s="69"/>
       <c r="E85" s="68"/>
-      <c r="F85" s="82" t="s">
+      <c r="F85" s="70" t="s">
         <v>228</v>
       </c>
       <c r="G85" s="61">
@@ -3334,13 +3333,13 @@
         <v>3141</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A86" s="68"/>
       <c r="B86" s="68"/>
       <c r="C86" s="68"/>
       <c r="D86" s="69"/>
       <c r="E86" s="68"/>
-      <c r="F86" s="82" t="s">
+      <c r="F86" s="70" t="s">
         <v>226</v>
       </c>
       <c r="G86" s="61">
@@ -3348,21 +3347,21 @@
         <v>24081</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D87" s="31"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D88" s="31"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D89" s="31"/>
     </row>
-    <row r="90" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="C90" s="83" t="s">
+    <row r="90" spans="1:7" ht="18" x14ac:dyDescent="0.4">
+      <c r="C90" s="71" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B91" s="46" t="s">
         <v>176</v>
       </c>
@@ -3373,7 +3372,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B92" s="48">
         <v>2</v>
       </c>
@@ -3384,7 +3383,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B93" s="48">
         <v>1</v>
       </c>
@@ -3395,7 +3394,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B94" s="48">
         <v>1</v>
       </c>
@@ -3406,7 +3405,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B95" s="48">
         <v>1</v>
       </c>
@@ -3417,7 +3416,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B96" s="48">
         <v>2</v>
       </c>
@@ -3428,7 +3427,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="97" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B97" s="48">
         <v>1</v>
       </c>
@@ -3439,7 +3438,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="98" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B98" s="48">
         <v>2</v>
       </c>
@@ -3450,7 +3449,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="99" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B99" s="48">
         <v>1</v>
       </c>
@@ -3461,7 +3460,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="100" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B100" s="48">
         <v>2</v>
       </c>
@@ -3472,7 +3471,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="101" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B101" s="48">
         <v>1</v>
       </c>
@@ -3483,7 +3482,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="102" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B102" s="48">
         <v>1</v>
       </c>
@@ -3494,7 +3493,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="103" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B103" s="48">
         <v>1</v>
       </c>
@@ -3505,7 +3504,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="104" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B104" s="50">
         <f>SUM(B92:B103)</f>
         <v>16</v>
@@ -3513,40 +3512,40 @@
       <c r="C104" s="45"/>
       <c r="D104" s="45"/>
     </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B105" s="45"/>
       <c r="C105" s="45"/>
       <c r="D105" s="45"/>
     </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B107" s="45"/>
       <c r="C107" s="45"/>
     </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B108" s="45"/>
       <c r="C108" s="45"/>
     </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B109" s="45"/>
       <c r="C109" s="45"/>
     </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B110" s="45"/>
       <c r="C110" s="45"/>
     </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B111" s="45"/>
       <c r="C111" s="45"/>
     </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B112" s="45"/>
       <c r="C112" s="45"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B113" s="45"/>
       <c r="C113" s="45"/>
     </row>
-    <row r="116" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" ht="18" x14ac:dyDescent="0.4">
       <c r="B116" s="51" t="s">
         <v>188</v>
       </c>
@@ -3555,28 +3554,28 @@
       </c>
       <c r="D116" s="32"/>
     </row>
-    <row r="117" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" ht="18" x14ac:dyDescent="0.4">
       <c r="B117" s="53"/>
       <c r="C117" s="52" t="s">
         <v>190</v>
       </c>
       <c r="D117" s="32"/>
     </row>
-    <row r="118" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" ht="18" x14ac:dyDescent="0.4">
       <c r="B118" s="53"/>
       <c r="C118" s="52" t="s">
         <v>191</v>
       </c>
       <c r="D118" s="32"/>
     </row>
-    <row r="119" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" ht="18" x14ac:dyDescent="0.4">
       <c r="B119" s="53"/>
       <c r="C119" s="52" t="s">
         <v>192</v>
       </c>
       <c r="D119" s="35"/>
     </row>
-    <row r="120" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" ht="18" x14ac:dyDescent="0.4">
       <c r="A120" s="32"/>
       <c r="B120" s="53"/>
       <c r="C120" s="52" t="s">
@@ -3585,14 +3584,14 @@
       <c r="D120" s="32"/>
       <c r="E120" s="33"/>
     </row>
-    <row r="121" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" ht="18" x14ac:dyDescent="0.4">
       <c r="A121" s="32"/>
       <c r="B121" s="53"/>
       <c r="C121" s="52"/>
       <c r="D121" s="35"/>
       <c r="E121" s="34"/>
     </row>
-    <row r="122" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" ht="18" x14ac:dyDescent="0.4">
       <c r="A122" s="32"/>
       <c r="B122" s="54" t="s">
         <v>11</v>
@@ -3603,7 +3602,7 @@
       <c r="D122" s="32"/>
       <c r="E122" s="34"/>
     </row>
-    <row r="123" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" ht="18" x14ac:dyDescent="0.4">
       <c r="A123" s="32"/>
       <c r="B123" s="54"/>
       <c r="C123" s="55" t="s">
@@ -3612,7 +3611,7 @@
       <c r="D123" s="32"/>
       <c r="E123" s="30"/>
     </row>
-    <row r="124" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" ht="18" x14ac:dyDescent="0.4">
       <c r="A124" s="32"/>
       <c r="B124" s="54"/>
       <c r="C124" s="55" t="s">
@@ -3621,35 +3620,35 @@
       <c r="D124" s="32"/>
       <c r="E124" s="34"/>
     </row>
-    <row r="125" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" ht="20" x14ac:dyDescent="0.4">
       <c r="A125" s="32"/>
       <c r="B125" s="36"/>
       <c r="C125" s="37"/>
       <c r="D125" s="32"/>
       <c r="E125" s="34"/>
     </row>
-    <row r="126" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" ht="20" x14ac:dyDescent="0.4">
       <c r="A126" s="32"/>
       <c r="B126" s="36"/>
       <c r="C126" s="37"/>
       <c r="D126" s="32"/>
       <c r="E126" s="34"/>
     </row>
-    <row r="127" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A127" s="32"/>
       <c r="B127" s="34"/>
       <c r="C127" s="34"/>
       <c r="D127" s="32"/>
       <c r="E127" s="34"/>
     </row>
-    <row r="128" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A128" s="32"/>
       <c r="B128" s="34"/>
       <c r="C128" s="34"/>
       <c r="D128" s="32"/>
       <c r="E128" s="34"/>
     </row>
-    <row r="129" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A129" s="32"/>
       <c r="B129" s="32" t="s">
         <v>197</v>
@@ -3658,17 +3657,17 @@
       <c r="D129" s="32"/>
       <c r="E129" s="32"/>
     </row>
-    <row r="130" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A130" s="32"/>
       <c r="D130" s="32"/>
       <c r="E130" s="32"/>
     </row>
-    <row r="131" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A131" s="32"/>
       <c r="D131" s="32"/>
       <c r="E131" s="32"/>
     </row>
-    <row r="132" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A132" s="32"/>
       <c r="B132" s="32" t="s">
         <v>198</v>
@@ -3677,31 +3676,31 @@
       <c r="D132" s="32"/>
       <c r="E132" s="32"/>
     </row>
-    <row r="133" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A133" s="32"/>
       <c r="B133" s="32"/>
       <c r="C133" s="32"/>
       <c r="D133" s="32"/>
       <c r="E133" s="32"/>
     </row>
-    <row r="134" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A134" s="32"/>
       <c r="B134" s="32"/>
       <c r="C134" s="32"/>
       <c r="D134" s="32"/>
       <c r="E134" s="32"/>
     </row>
-    <row r="135" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A135" s="32"/>
       <c r="D135" s="32"/>
       <c r="E135" s="32"/>
     </row>
-    <row r="136" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A136" s="32"/>
       <c r="D136" s="32"/>
       <c r="E136" s="32"/>
     </row>
-    <row r="137" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A137" s="32"/>
       <c r="B137" s="32" t="s">
         <v>199</v>
@@ -3710,15 +3709,15 @@
       <c r="D137" s="32"/>
       <c r="E137" s="32"/>
     </row>
-    <row r="138" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A138" s="32"/>
       <c r="E138" s="32"/>
     </row>
-    <row r="139" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A139" s="32"/>
       <c r="E139" s="32"/>
     </row>
-    <row r="140" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A140" s="32"/>
       <c r="B140" s="32" t="s">
         <v>200</v>
@@ -3726,17 +3725,17 @@
       <c r="C140" s="38"/>
       <c r="E140" s="32"/>
     </row>
-    <row r="141" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A141" s="32"/>
       <c r="E141" s="32"/>
     </row>
-    <row r="143" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B143" s="32" t="s">
         <v>201</v>
       </c>
       <c r="C143" s="38"/>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B144" s="39"/>
     </row>
   </sheetData>
